--- a/data/trans_camb/P08_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P08_1_R-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>9.194831459287322</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.108971568570372</v>
+        <v>8.108971568570366</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6.920174279537489</v>
@@ -664,7 +664,7 @@
         <v>7.546490037086767</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>10.49113259320765</v>
+        <v>10.49113259320764</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.207801598468881</v>
+        <v>3.805337028808974</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.850397806495946</v>
+        <v>4.791091223986637</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.941296084774317</v>
+        <v>3.985070861045208</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.051306172190543</v>
+        <v>3.003489901436181</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.668773773749288</v>
+        <v>1.852045238598863</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.642462995633754</v>
+        <v>7.476483821081495</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.640258143941136</v>
+        <v>4.973166258480843</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.42106371528457</v>
+        <v>4.271521609371477</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.418489837466232</v>
+        <v>7.347131507728069</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.38127429280583</v>
+        <v>12.32724725344912</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.17879497099489</v>
+        <v>13.21058739290289</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.48525228922107</v>
+        <v>12.83936176459666</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.78406146906747</v>
+        <v>10.59543801494617</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.1947945564165</v>
+        <v>10.38332191799007</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.10970978694075</v>
+        <v>15.04256420961373</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.48901780982586</v>
+        <v>10.54668111421317</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.5258322089569</v>
+        <v>10.57605016903675</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.13261835769154</v>
+        <v>13.84229803749419</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3896001057282165</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3435904393082793</v>
+        <v>0.3435904393082791</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1665210155681769</v>
@@ -769,7 +769,7 @@
         <v>0.2241762745770073</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3116499205962799</v>
+        <v>0.3116499205962798</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1690864893447576</v>
+        <v>0.1435443115614652</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.189660805923595</v>
+        <v>0.1927611067580116</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.153951547852139</v>
+        <v>0.1550394593784216</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.06754861431808869</v>
+        <v>0.06797640161840701</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03826408637230153</v>
+        <v>0.04258445191792679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.176821375596512</v>
+        <v>0.1718253069998387</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1314380728254577</v>
+        <v>0.141269568440971</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1263358663428759</v>
+        <v>0.1228121622826758</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2129366442963984</v>
+        <v>0.2107031278812517</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5706601730275757</v>
+        <v>0.563244171493573</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5968260600947989</v>
+        <v>0.6035178248821738</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5662007466432124</v>
+        <v>0.5792817981272533</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2714163999357296</v>
+        <v>0.2660237710573769</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2535375494082931</v>
+        <v>0.2626653758744799</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3884133288635128</v>
+        <v>0.3840605851150957</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3270429906517828</v>
+        <v>0.3305624643769477</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3177413672239285</v>
+        <v>0.3228502248402458</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4072875834462574</v>
+        <v>0.4320106849904199</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.650422014969283</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.655546670534387</v>
+        <v>6.655546670534385</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.855247371717544</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5648255404676885</v>
+        <v>0.7097589628023655</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.591506764704743</v>
+        <v>1.521884492362736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.116366698437546</v>
+        <v>5.268396201853015</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.289389813599309</v>
+        <v>1.148469668252661</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.489704090253881</v>
+        <v>3.688122931737499</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.703591897730996</v>
+        <v>4.665845592789277</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.501473017030859</v>
+        <v>1.428898687233167</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.160188431814233</v>
+        <v>3.067514054526151</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.473185627204442</v>
+        <v>5.466861610657781</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.177757532197953</v>
+        <v>4.017208541442765</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.883256226916437</v>
+        <v>4.949114359986999</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.730942478961801</v>
+        <v>8.92174657920717</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.597802880555443</v>
+        <v>5.689800564833414</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.720113355768439</v>
+        <v>7.99064198648953</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.532004368097974</v>
+        <v>8.445582990209951</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.238234762179845</v>
+        <v>4.190273795108109</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.926760863524652</v>
+        <v>5.821445820537568</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.104142025957778</v>
+        <v>8.162900778669849</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.6674445701091382</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7861728689622979</v>
+        <v>0.7861728689622975</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.408027402204933</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.09019039363426881</v>
+        <v>0.1093448738582459</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2460607734929526</v>
+        <v>0.2309611927980498</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7654132133228808</v>
+        <v>0.8223038553617009</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1403408484284663</v>
+        <v>0.1228725537377052</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3652517648399541</v>
+        <v>0.3823093150130856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4761017952497635</v>
+        <v>0.486929983682598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1859647868067584</v>
+        <v>0.1828875469408709</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4105028082586638</v>
+        <v>0.4101115256554212</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7136868896973666</v>
+        <v>0.7166300271900088</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8989776117453812</v>
+        <v>0.8435178848351322</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.031830574010113</v>
+        <v>1.015477904912084</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.81515234180772</v>
+        <v>1.900089730290991</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.748401776117908</v>
+        <v>0.7576498911387465</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.02957244227193</v>
+        <v>1.060404788937502</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.167357717044708</v>
+        <v>1.167972949088214</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6639457309732755</v>
+        <v>0.6601801996316361</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9329710934124801</v>
+        <v>0.9216016933424743</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.318209438107278</v>
+        <v>1.321541638046724</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.022678557851012</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.539623113760054</v>
+        <v>1.539623113760052</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.496231946977102</v>
@@ -1083,7 +1083,7 @@
         <v>-0.6684342264158122</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.0355399060131073</v>
+        <v>-0.03553990601310592</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.103679874218692</v>
@@ -1092,7 +1092,7 @@
         <v>0.8293480492545136</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.923369420963549</v>
+        <v>0.9233694209635477</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8588189852682098</v>
+        <v>-0.683277354440907</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9694198741156747</v>
+        <v>-1.035780962383645</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.16850995043378</v>
+        <v>-1.242696548855941</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.746244610559708</v>
+        <v>-4.569545875851974</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.509992009943751</v>
+        <v>-4.588497104022215</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.542103719168478</v>
+        <v>-3.70551438276622</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.435952934203724</v>
+        <v>-1.372046736918872</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.759348015053088</v>
+        <v>-1.620198405329454</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.256346858155645</v>
+        <v>-1.150419351634527</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.305566018593328</v>
+        <v>5.981198666736756</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.038968721477583</v>
+        <v>5.361725665756321</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.067466282835255</v>
+        <v>3.9933101198688</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.184753642260614</v>
+        <v>3.286373565173562</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.792644940666673</v>
+        <v>3.218936297373967</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.819246090808239</v>
+        <v>3.169071358765033</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.648441556634985</v>
+        <v>3.766970640170274</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.249302354005994</v>
+        <v>3.115480687996782</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.122498715488135</v>
+        <v>2.856297433597331</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.4118792750211933</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3135143987362488</v>
+        <v>0.3135143987362485</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.05487630944291329</v>
@@ -1188,7 +1188,7 @@
         <v>-0.07391947188100141</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.003930216286613496</v>
+        <v>-0.003930216286613343</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.161686464743982</v>
@@ -1197,7 +1197,7 @@
         <v>0.1214975077997205</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.135271414126295</v>
+        <v>0.1352714141262948</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1624189743295137</v>
+        <v>-0.1382723482879437</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.166272734514885</v>
+        <v>-0.1699727488834355</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1986793028276726</v>
+        <v>-0.2059256487544448</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4242845874679869</v>
+        <v>-0.4201304458370412</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4303272155216544</v>
+        <v>-0.4166536392450165</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3086296704998084</v>
+        <v>-0.3198878072515433</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1765461685009696</v>
+        <v>-0.1786377736360409</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2162258235332641</v>
+        <v>-0.2008490949914458</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1525873130629628</v>
+        <v>-0.1360814307782753</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.67810979618045</v>
+        <v>1.74076358681023</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.453685386210156</v>
+        <v>1.549197911062765</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.140465429598222</v>
+        <v>1.165089175960708</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4715482570106824</v>
+        <v>0.4619243696187391</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3812782569915014</v>
+        <v>0.4685354401990601</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.407240124756713</v>
+        <v>0.4532681853870155</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6244506584443162</v>
+        <v>0.6686210593290862</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5789786151453449</v>
+        <v>0.5832347549753814</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5860993499997179</v>
+        <v>0.4930424857917501</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.224516009603657</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.8229355255648829</v>
+        <v>0.8229355255648801</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.685993183100211</v>
@@ -1306,7 +1306,7 @@
         <v>2.012954376004594</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.099629584565426</v>
+        <v>2.09962958456543</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.894832926656144</v>
+        <v>1.844150356894147</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.096189724526187</v>
+        <v>1.01438347067899</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.646038322419209</v>
+        <v>1.744104829659249</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.886371947190552</v>
+        <v>1.976022415331759</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.8691754984244989</v>
+        <v>-0.7595123926962644</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.106056343589284</v>
+        <v>-0.9528881478909439</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.239595602692637</v>
+        <v>2.362596131814142</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6249258482520664</v>
+        <v>0.6816879469471342</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.017800043052826</v>
+        <v>0.9310193396128864</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.179878273852626</v>
+        <v>5.100920985408914</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.253647910682725</v>
+        <v>4.235392933493479</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.836168278714019</v>
+        <v>4.947157954831134</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.986244036688222</v>
+        <v>5.890430938865367</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.174254835399602</v>
+        <v>3.183458230930941</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.654605446155061</v>
+        <v>2.495565243324015</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.026275470925952</v>
+        <v>5.013899300810622</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.284885878521441</v>
+        <v>3.316851733618089</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.509427996848036</v>
+        <v>3.404965900772555</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.05715184948943298</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03840887904096468</v>
+        <v>0.03840887904096454</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2251190974870858</v>
@@ -1411,7 +1411,7 @@
         <v>0.1229395850449445</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1282332043644757</v>
+        <v>0.1282332043644759</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1553644398252866</v>
+        <v>0.153167761895359</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.09355674046194068</v>
+        <v>0.08808219823760939</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1351795119642157</v>
+        <v>0.145948686334457</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08252222290849437</v>
+        <v>0.08646983299246058</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03841995822960052</v>
+        <v>-0.03270878792706897</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.04838269471088654</v>
+        <v>-0.04227612565923078</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1320251458336441</v>
+        <v>0.1384398954958759</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03649821381915817</v>
+        <v>0.03962919205403866</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.05964997255983358</v>
+        <v>0.05428425781122825</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5033103024993041</v>
+        <v>0.4917086461633889</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4107047092141456</v>
+        <v>0.4176871171556187</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.45796147975528</v>
+        <v>0.4789536170187458</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2901806507849535</v>
+        <v>0.2857526666549096</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1574159950775165</v>
+        <v>0.1566231815341231</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1283753385054602</v>
+        <v>0.1222372189905358</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3190440381242932</v>
+        <v>0.3157759614492404</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2088699669652976</v>
+        <v>0.210193198025792</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2253722665720878</v>
+        <v>0.2163945255356609</v>
       </c>
     </row>
     <row r="28">
